--- a/Work Tracking/Grades.xlsx
+++ b/Work Tracking/Grades.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Norco College\CIS 7 - Discrete Structures\grades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncc\CIS7---Discrete-Structures\Work Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -539,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,6 +714,9 @@
       <c r="D14">
         <v>1</v>
       </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -870,6 +873,9 @@
       <c r="B26" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
       <c r="E26">
         <v>1</v>
       </c>
@@ -882,6 +888,9 @@
         <v>23</v>
       </c>
       <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
         <v>1</v>
       </c>
     </row>

--- a/Work Tracking/Grades.xlsx
+++ b/Work Tracking/Grades.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncc\CIS7---Discrete-Structures\Work Tracking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Norco College\CIS 7 - Discrete Structures\online\CIS7---Discrete-Structures\Work Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Baesu, Benjamin</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>McDonald, Ryan T.</t>
+  </si>
+  <si>
+    <t>Assignment 4</t>
   </si>
 </sst>
 </file>
@@ -537,104 +540,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G34"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>30</v>
+      <c r="A2" s="1">
+        <v>2510759</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
+        <v>2314019</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>2513919</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
         <v>1910427</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>2304318</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>2518161</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>2445585</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
-        <v>2605599</v>
+        <v>2249735</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -645,191 +674,217 @@
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
+        <v>2445585</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>2605599</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>2259358</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
         <v>2420156</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
+      <c r="D13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>2445577</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
         <v>2657949</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>2559201</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
         <v>2570793</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>2276988</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
         <v>2544498</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>2436031</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>2301160</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>2575265</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>2638532</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>16</v>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>2601097</v>
+        <v>2436031</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>2487675</v>
+        <v>2301160</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>2519521</v>
+        <v>2575265</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -843,35 +898,38 @@
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>2252531</v>
+        <v>2638532</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>2577494</v>
+        <v>2601097</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>2545999</v>
+        <v>2487675</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -882,104 +940,115 @@
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
+        <v>2519521</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>2702737</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>2252531</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>2577494</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>2545999</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
         <v>2531635</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B32" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="1">
-        <v>2510759</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>2249735</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1">
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
         <v>2138056</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B33" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>2702737</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1">
-        <v>2314019</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>1</v>
-      </c>
-      <c r="F34">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="F33">
         <v>1</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:G33">
+    <sortCondition ref="B2:B33"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Work Tracking/Grades.xlsx
+++ b/Work Tracking/Grades.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Norco College\CIS 7 - Discrete Structures\online\CIS7---Discrete-Structures\Work Tracking\"/>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Baesu, Benjamin</t>
   </si>
@@ -141,13 +141,16 @@
   </si>
   <si>
     <t>Assignment 4</t>
+  </si>
+  <si>
+    <t>DROP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +169,21 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -215,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -224,6 +242,13 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -543,7 +568,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -584,6 +609,9 @@
       <c r="F2">
         <v>1</v>
       </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
@@ -635,7 +663,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -646,15 +674,21 @@
       <c r="F6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>2518161</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D7">
+      <c r="C7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="5">
         <v>1</v>
       </c>
     </row>
@@ -703,21 +737,24 @@
       <c r="F10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <v>2605599</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
         <v>1</v>
       </c>
     </row>
@@ -745,7 +782,13 @@
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
       <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="F13">
         <v>1</v>
       </c>
     </row>
@@ -760,6 +803,9 @@
         <v>1</v>
       </c>
       <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
         <v>1</v>
       </c>
     </row>
@@ -791,14 +837,23 @@
       <c r="E16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2559201</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
       <c r="D17">
         <v>1</v>
       </c>
@@ -808,8 +863,11 @@
       <c r="F17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>2570793</v>
       </c>
@@ -823,7 +881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2276988</v>
       </c>
@@ -839,8 +897,11 @@
       <c r="F19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>2544498</v>
       </c>
@@ -854,7 +915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>2436031</v>
       </c>
@@ -862,7 +923,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2301160</v>
       </c>
@@ -878,8 +939,11 @@
       <c r="F22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>2575265</v>
       </c>
@@ -895,8 +959,11 @@
       <c r="F23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>2638532</v>
       </c>
@@ -904,7 +971,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>2601097</v>
       </c>
@@ -921,7 +988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>2487675</v>
       </c>
@@ -929,7 +996,7 @@
         <v>18</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -937,8 +1004,14 @@
       <c r="E26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>2519521</v>
       </c>
@@ -954,14 +1027,20 @@
       <c r="F27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>2702737</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>33</v>
       </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
       <c r="D28">
         <v>1</v>
       </c>
@@ -971,16 +1050,25 @@
       <c r="F28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>2252531</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>2577494</v>
       </c>
@@ -997,21 +1085,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="1">
+    <row r="31" spans="1:7" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="6">
         <v>2545999</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="5">
+        <v>1</v>
+      </c>
+      <c r="E31" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>2531635</v>
       </c>
@@ -1027,8 +1115,11 @@
       <c r="F32">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>2138056</v>
       </c>
@@ -1036,12 +1127,15 @@
         <v>26</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
         <v>1</v>
       </c>
     </row>

--- a/Work Tracking/Grades.xlsx
+++ b/Work Tracking/Grades.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Baesu, Benjamin</t>
   </si>
@@ -35,15 +35,9 @@
     <t>Bue, Kyle G.</t>
   </si>
   <si>
-    <t>Covarrubis, Patricia F.</t>
-  </si>
-  <si>
     <t>Garza-Avalos, David</t>
   </si>
   <si>
-    <t>Hackett, Tyler J.</t>
-  </si>
-  <si>
     <t>Harris, Matthew R.</t>
   </si>
   <si>
@@ -92,9 +86,6 @@
     <t>Teng, Alvin J.</t>
   </si>
   <si>
-    <t>Trejo, Vincent A.</t>
-  </si>
-  <si>
     <t>Vig, Mrinal K.</t>
   </si>
   <si>
@@ -143,14 +134,17 @@
     <t>Assignment 4</t>
   </si>
   <si>
-    <t>DROP</t>
+    <t>Assignment 5</t>
+  </si>
+  <si>
+    <t>Assignment 6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,21 +163,6 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -233,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -242,13 +221,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -565,43 +537,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
         <v>27</v>
       </c>
-      <c r="D1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" t="s">
-        <v>30</v>
-      </c>
       <c r="G1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2510759</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -612,13 +596,16 @@
       <c r="G2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2314019</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -629,16 +616,22 @@
       <c r="F3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2513919</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1910427</v>
       </c>
@@ -655,7 +648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2304318</v>
       </c>
@@ -677,27 +670,39 @@
       <c r="G6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>2518161</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>2249735</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>2445585</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>2249735</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>25</v>
+      <c r="C8">
+        <v>1</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -706,27 +711,36 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>2445585</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>2259358</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>35</v>
+      <c r="C10">
+        <v>1</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -734,88 +748,100 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
-        <v>2605599</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>2420156</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="5">
-        <v>1</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-      <c r="F11" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>2259358</v>
+        <v>2445577</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>2420156</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>2657949</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>2445577</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>2559201</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="C15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -823,10 +849,19 @@
       <c r="E15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
-        <v>2657949</v>
+        <v>2570793</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
@@ -837,23 +872,14 @@
       <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>2559201</v>
+        <v>2276988</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
       <c r="D17">
         <v>1</v>
       </c>
@@ -866,90 +892,114 @@
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>2570793</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>2544498</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>2436031</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>2276988</v>
-      </c>
-      <c r="B19" s="1" t="s">
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>2301160</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>2544498</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>37</v>
-      </c>
       <c r="D20">
         <v>1</v>
       </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
       <c r="F20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
-        <v>2436031</v>
+        <v>2575265</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>2301160</v>
+        <v>2638532</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
-        <v>2575265</v>
+        <v>2601097</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
       <c r="D23">
         <v>1</v>
       </c>
@@ -962,85 +1012,115 @@
       <c r="G23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>2638532</v>
+        <v>2487675</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
-        <v>2601097</v>
+        <v>2519521</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1">
-        <v>2487675</v>
-      </c>
-      <c r="B26" s="1" t="s">
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>2702737</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>2252531</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C26">
-        <v>3</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>2519521</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>2577494</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>1</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>2702737</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
-      </c>
       <c r="D28">
         <v>1</v>
       </c>
@@ -1053,89 +1133,53 @@
       <c r="G28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="1">
-        <v>2252531</v>
-      </c>
-      <c r="B29" s="1" t="s">
+      <c r="H28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>2531635</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
       <c r="D29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <v>2577494</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>21</v>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>2138056</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
-      <c r="E30">
-        <v>1</v>
-      </c>
       <c r="F30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="6">
-        <v>2545999</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D31" s="5">
-        <v>1</v>
-      </c>
-      <c r="E31" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <v>2531635</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D32">
-        <v>1</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1">
-        <v>2138056</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33">
-        <v>2</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
         <v>1</v>
       </c>
     </row>

--- a/Work Tracking/Grades.xlsx
+++ b/Work Tracking/Grades.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Norco College\CIS 7 - Discrete Structures\online\CIS7---Discrete-Structures\Work Tracking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncc\CIS7---Discrete-Structures\Work Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Baesu, Benjamin</t>
   </si>
@@ -138,12 +138,18 @@
   </si>
   <si>
     <t>Assignment 6</t>
+  </si>
+  <si>
+    <t>Assignment 7</t>
+  </si>
+  <si>
+    <t>Assignment 8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -537,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,9 +555,10 @@
     <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -579,8 +586,14 @@
       <c r="I1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2510759</v>
       </c>
@@ -600,7 +613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2314019</v>
       </c>
@@ -620,7 +633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2513919</v>
       </c>
@@ -630,8 +643,11 @@
       <c r="D4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1910427</v>
       </c>
@@ -648,7 +664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2304318</v>
       </c>
@@ -670,11 +686,20 @@
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
       <c r="I6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>2249735</v>
       </c>
@@ -694,7 +719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2445585</v>
       </c>
@@ -711,7 +736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>32</v>
@@ -731,8 +756,11 @@
       <c r="H9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2259358</v>
       </c>
@@ -752,7 +780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>2420156</v>
       </c>
@@ -774,8 +802,17 @@
       <c r="H11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2445577</v>
       </c>
@@ -791,8 +828,14 @@
       <c r="G12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>31</v>
@@ -807,7 +850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>2657949</v>
       </c>
@@ -833,7 +876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2559201</v>
       </c>
@@ -859,7 +902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>2570793</v>
       </c>
@@ -873,7 +916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2276988</v>
       </c>
@@ -896,7 +939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>2544498</v>
       </c>
@@ -915,8 +958,11 @@
       <c r="H18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>2436031</v>
       </c>
@@ -933,7 +979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2301160</v>
       </c>
@@ -959,7 +1005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>2575265</v>
       </c>
@@ -981,8 +1027,11 @@
       <c r="H21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2638532</v>
       </c>
@@ -990,7 +1039,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>2601097</v>
       </c>
@@ -1012,11 +1061,17 @@
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
       <c r="I23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>2487675</v>
       </c>
@@ -1024,7 +1079,7 @@
         <v>16</v>
       </c>
       <c r="C24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -1044,8 +1099,14 @@
       <c r="I24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>2519521</v>
       </c>
@@ -1067,8 +1128,11 @@
       <c r="H25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>2702737</v>
       </c>
@@ -1093,8 +1157,11 @@
       <c r="H26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>2252531</v>
       </c>
@@ -1102,19 +1169,25 @@
         <v>18</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
       <c r="G27">
         <v>1</v>
       </c>
       <c r="H27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>2577494</v>
       </c>
@@ -1136,8 +1209,17 @@
       <c r="H28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>2531635</v>
       </c>
@@ -1159,8 +1241,14 @@
       <c r="H29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="K29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>2138056</v>
       </c>
@@ -1180,6 +1268,9 @@
         <v>1</v>
       </c>
       <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30">
         <v>1</v>
       </c>
     </row>

--- a/Work Tracking/Grades.xlsx
+++ b/Work Tracking/Grades.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncc\CIS7---Discrete-Structures\Work Tracking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Norco College\CIS 7 - Discrete Structures\online\CIS7---Discrete-Structures\Work Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Baesu, Benjamin</t>
   </si>
@@ -144,13 +144,16 @@
   </si>
   <si>
     <t>Assignment 8</t>
+  </si>
+  <si>
+    <t>Assignment 9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +172,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -218,7 +229,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -229,6 +240,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,57 +555,59 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L1" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2510759</v>
       </c>
@@ -612,8 +626,14 @@
       <c r="H2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2314019</v>
       </c>
@@ -629,11 +649,23 @@
       <c r="F3">
         <v>1</v>
       </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
       <c r="I3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2513919</v>
       </c>
@@ -646,8 +678,11 @@
       <c r="F4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1910427</v>
       </c>
@@ -664,7 +699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2304318</v>
       </c>
@@ -672,7 +707,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -699,7 +734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>2249735</v>
       </c>
@@ -718,8 +753,11 @@
       <c r="I7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2445585</v>
       </c>
@@ -736,7 +774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>32</v>
@@ -759,8 +797,11 @@
       <c r="I9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2259358</v>
       </c>
@@ -780,7 +821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>2420156</v>
       </c>
@@ -812,7 +853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2445577</v>
       </c>
@@ -834,8 +875,11 @@
       <c r="I12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
         <v>31</v>
@@ -850,7 +894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>2657949</v>
       </c>
@@ -875,8 +919,14 @@
       <c r="I14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2559201</v>
       </c>
@@ -901,18 +951,39 @@
       <c r="H15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>2570793</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
         <v>1</v>
       </c>
     </row>
@@ -938,6 +1009,9 @@
       <c r="H17">
         <v>1</v>
       </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
@@ -961,6 +1035,9 @@
       <c r="I18">
         <v>1</v>
       </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
@@ -1004,6 +1081,12 @@
       <c r="I20">
         <v>1</v>
       </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
@@ -1030,6 +1113,9 @@
       <c r="I21">
         <v>1</v>
       </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -1070,6 +1156,9 @@
       <c r="J23">
         <v>1</v>
       </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
@@ -1131,6 +1220,12 @@
       <c r="I25">
         <v>1</v>
       </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
@@ -1160,6 +1255,12 @@
       <c r="I26">
         <v>1</v>
       </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
@@ -1186,6 +1287,12 @@
       <c r="I27">
         <v>1</v>
       </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
@@ -1271,6 +1378,9 @@
         <v>1</v>
       </c>
       <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="K30">
         <v>1</v>
       </c>
     </row>

--- a/Work Tracking/Grades.xlsx
+++ b/Work Tracking/Grades.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Baesu, Benjamin</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>Assignment 9</t>
+  </si>
+  <si>
+    <t>Assignment 10</t>
   </si>
 </sst>
 </file>
@@ -182,7 +185,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,6 +201,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -241,6 +250,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -555,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L30"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,9 +580,10 @@
     <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="4" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>28</v>
       </c>
@@ -606,8 +620,11 @@
       <c r="L1" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M1" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2510759</v>
       </c>
@@ -626,6 +643,9 @@
       <c r="H2">
         <v>1</v>
       </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
       <c r="J2">
         <v>1</v>
       </c>
@@ -633,7 +653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2314019</v>
       </c>
@@ -664,8 +684,11 @@
       <c r="K3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2513919</v>
       </c>
@@ -678,11 +701,20 @@
       <c r="F4">
         <v>1</v>
       </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
       <c r="I4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1910427</v>
       </c>
@@ -698,8 +730,11 @@
       <c r="F5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2304318</v>
       </c>
@@ -733,8 +768,14 @@
       <c r="K6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>2249735</v>
       </c>
@@ -750,6 +791,9 @@
       <c r="F7">
         <v>1</v>
       </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
       <c r="I7">
         <v>1</v>
       </c>
@@ -757,24 +801,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    <row r="8" spans="1:13" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
         <v>2445585</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="6">
+        <v>1</v>
+      </c>
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2" t="s">
         <v>32</v>
@@ -797,11 +841,14 @@
       <c r="I9">
         <v>1</v>
       </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
       <c r="K9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2259358</v>
       </c>
@@ -809,7 +856,7 @@
         <v>4</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -817,11 +864,32 @@
       <c r="E10">
         <v>1</v>
       </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
       <c r="H10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>2420156</v>
       </c>
@@ -852,8 +920,14 @@
       <c r="K11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2445577</v>
       </c>
@@ -878,23 +952,32 @@
       <c r="J12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="6">
+        <v>1</v>
+      </c>
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>2657949</v>
       </c>
@@ -925,8 +1008,11 @@
       <c r="K14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2559201</v>
       </c>
@@ -934,7 +1020,7 @@
         <v>8</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -960,8 +1046,14 @@
       <c r="K15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>2570793</v>
       </c>
@@ -987,7 +1079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2276988</v>
       </c>
@@ -1009,11 +1101,20 @@
       <c r="H17">
         <v>1</v>
       </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
       <c r="J17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>2544498</v>
       </c>
@@ -1038,25 +1139,31 @@
       <c r="J18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
         <v>2436031</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1</v>
+      </c>
+      <c r="I19" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2301160</v>
       </c>
@@ -1087,8 +1194,14 @@
       <c r="K20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>2575265</v>
       </c>
@@ -1116,16 +1229,22 @@
       <c r="J21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1">
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
         <v>2638532</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>2601097</v>
       </c>
@@ -1159,8 +1278,11 @@
       <c r="K23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>2487675</v>
       </c>
@@ -1194,8 +1316,11 @@
       <c r="K24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>2519521</v>
       </c>
@@ -1227,7 +1352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>2702737</v>
       </c>
@@ -1261,8 +1386,11 @@
       <c r="K26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>2252531</v>
       </c>
@@ -1270,7 +1398,7 @@
         <v>18</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1293,8 +1421,14 @@
       <c r="K27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>2577494</v>
       </c>
@@ -1325,8 +1459,14 @@
       <c r="K28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>2531635</v>
       </c>
@@ -1354,8 +1494,14 @@
       <c r="K29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>2138056</v>
       </c>
@@ -1380,7 +1526,16 @@
       <c r="I30">
         <v>1</v>
       </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
       <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
         <v>1</v>
       </c>
     </row>

--- a/Work Tracking/Grades.xlsx
+++ b/Work Tracking/Grades.xlsx
@@ -571,7 +571,7 @@
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,6 +1011,9 @@
       <c r="L14">
         <v>1</v>
       </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">

--- a/Work Tracking/Grades.xlsx
+++ b/Work Tracking/Grades.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Norco College\CIS 7 - Discrete Structures\online\CIS7---Discrete-Structures\Work Tracking\"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Baesu, Benjamin</t>
   </si>
@@ -153,12 +153,18 @@
   </si>
   <si>
     <t>Assignment 11</t>
+  </si>
+  <si>
+    <t>Assignment 12</t>
+  </si>
+  <si>
+    <t>Assignment 13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -221,7 +227,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -244,11 +250,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -265,6 +297,15 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,11 +632,11 @@
     <col min="2" max="2" width="21.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="12" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="30.42578125" style="3"/>
+    <col min="13" max="16" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="30.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -638,8 +679,14 @@
       <c r="N1" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>2510759</v>
       </c>
@@ -667,11 +714,17 @@
       <c r="K2" s="3">
         <v>1</v>
       </c>
+      <c r="L2" s="8">
+        <v>1</v>
+      </c>
       <c r="M2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O2" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2314019</v>
       </c>
@@ -712,7 +765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2513919</v>
       </c>
@@ -737,8 +790,11 @@
       <c r="J4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4">
         <v>1910427</v>
       </c>
@@ -754,11 +810,20 @@
       <c r="F5" s="3">
         <v>1</v>
       </c>
+      <c r="G5" s="9">
+        <v>1</v>
+      </c>
+      <c r="H5" s="9">
+        <v>1</v>
+      </c>
       <c r="I5" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K5" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2304318</v>
       </c>
@@ -801,12 +866,18 @@
       <c r="N6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="O6" s="8">
+        <v>1</v>
+      </c>
+      <c r="P6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
         <v>2249735</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="10" t="s">
         <v>22</v>
       </c>
       <c r="D7" s="3">
@@ -824,33 +895,57 @@
       <c r="I7" s="3">
         <v>1</v>
       </c>
+      <c r="J7" s="8">
+        <v>1</v>
+      </c>
       <c r="K7" s="3">
         <v>1</v>
       </c>
+      <c r="L7" s="8">
+        <v>1</v>
+      </c>
+      <c r="M7" s="8">
+        <v>1</v>
+      </c>
       <c r="N7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
+      <c r="O7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="12" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>2445585</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="6">
-        <v>1</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
+      <c r="C8" s="12">
+        <v>1</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12">
+        <v>1</v>
+      </c>
+      <c r="I8" s="12">
+        <v>1</v>
+      </c>
+      <c r="K8" s="12">
+        <v>1</v>
+      </c>
+      <c r="M8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D9" s="3">
@@ -877,8 +972,17 @@
       <c r="K9" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M9" s="9">
+        <v>1</v>
+      </c>
+      <c r="N9" s="9">
+        <v>1</v>
+      </c>
+      <c r="O9" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>2259358</v>
       </c>
@@ -918,8 +1022,14 @@
       <c r="M10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N10" s="9">
+        <v>1</v>
+      </c>
+      <c r="O10" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>2420156</v>
       </c>
@@ -959,8 +1069,12 @@
       <c r="N11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O11" s="9">
+        <v>1</v>
+      </c>
+      <c r="P11" s="9"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>2445577</v>
       </c>
@@ -994,8 +1108,14 @@
       <c r="M12" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N12" s="8">
+        <v>1</v>
+      </c>
+      <c r="O12" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
         <v>31</v>
@@ -1010,7 +1130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>2657949</v>
       </c>
@@ -1050,8 +1170,11 @@
       <c r="N14" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O14" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>2559201</v>
       </c>
@@ -1094,8 +1217,14 @@
       <c r="N15" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O15" s="9">
+        <v>1</v>
+      </c>
+      <c r="P15" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>2570793</v>
       </c>
@@ -1120,8 +1249,20 @@
       <c r="H16" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I16" s="8">
+        <v>1</v>
+      </c>
+      <c r="J16" s="8">
+        <v>1</v>
+      </c>
+      <c r="M16" s="8">
+        <v>1</v>
+      </c>
+      <c r="N16" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>2276988</v>
       </c>
@@ -1155,8 +1296,17 @@
       <c r="L17" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M17" s="8">
+        <v>1</v>
+      </c>
+      <c r="N17" s="8">
+        <v>1</v>
+      </c>
+      <c r="O17" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7">
         <v>2544498</v>
       </c>
@@ -1190,8 +1340,11 @@
       <c r="M18" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N18" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>2436031</v>
       </c>
@@ -1208,7 +1361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>2301160</v>
       </c>
@@ -1248,8 +1401,14 @@
       <c r="N20" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O20" s="8">
+        <v>1</v>
+      </c>
+      <c r="P20" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4">
         <v>2575265</v>
       </c>
@@ -1286,16 +1445,28 @@
       <c r="M21" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N21" s="8">
+        <v>1</v>
+      </c>
+      <c r="O21" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>2638532</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F22" s="6">
+        <v>1</v>
+      </c>
+      <c r="I22" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>2601097</v>
       </c>
@@ -1338,8 +1509,11 @@
       <c r="N23" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O23" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>2487675</v>
       </c>
@@ -1382,8 +1556,14 @@
       <c r="N24" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O24" s="8">
+        <v>1</v>
+      </c>
+      <c r="P24" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>2519521</v>
       </c>
@@ -1417,8 +1597,17 @@
       <c r="L25" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M25" s="8">
+        <v>1</v>
+      </c>
+      <c r="N25" s="8">
+        <v>1</v>
+      </c>
+      <c r="O25" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4">
         <v>2702737</v>
       </c>
@@ -1458,8 +1647,14 @@
       <c r="M26" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="N26" s="8">
+        <v>1</v>
+      </c>
+      <c r="O26" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>2252531</v>
       </c>
@@ -1497,7 +1692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4">
         <v>2577494</v>
       </c>
@@ -1535,7 +1730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>2531635</v>
       </c>
@@ -1570,7 +1765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>2138056</v>
       </c>

--- a/Work Tracking/Grades.xlsx
+++ b/Work Tracking/Grades.xlsx
@@ -623,7 +623,7 @@
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1802,6 +1802,15 @@
       <c r="M30" s="3">
         <v>1</v>
       </c>
+      <c r="N30" s="8">
+        <v>1</v>
+      </c>
+      <c r="O30" s="8">
+        <v>1</v>
+      </c>
+      <c r="P30" s="8">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A2:G33">

--- a/Work Tracking/Grades.xlsx
+++ b/Work Tracking/Grades.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Baesu, Benjamin</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>Assignment 17</t>
+  </si>
+  <si>
+    <t>Assignment 18</t>
   </si>
 </sst>
 </file>
@@ -643,12 +646,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="I4" sqref="I4"/>
+      <selection pane="topRight" activeCell="S20" sqref="S20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,7 +664,7 @@
     <col min="21" max="16384" width="30.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -722,8 +725,11 @@
       <c r="T1" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10">
         <v>2510759</v>
       </c>
@@ -772,8 +778,11 @@
       <c r="R2" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S2" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="10">
         <v>2314019</v>
       </c>
@@ -828,8 +837,11 @@
       <c r="S3" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T3" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>2513919</v>
       </c>
@@ -861,7 +873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="10">
         <v>1910427</v>
       </c>
@@ -890,7 +902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="10">
         <v>2304318</v>
       </c>
@@ -949,7 +961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8">
         <v>2249735</v>
       </c>
@@ -990,7 +1002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:20" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" s="9" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2445585</v>
       </c>
@@ -1019,7 +1031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:20" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="14" t="s">
         <v>32</v>
@@ -1058,7 +1070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:20" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>2259358</v>
       </c>
@@ -1105,7 +1117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
         <v>2420156</v>
       </c>
@@ -1160,8 +1172,11 @@
       <c r="S11" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U11" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10">
         <v>2445577</v>
       </c>
@@ -1204,8 +1219,11 @@
       <c r="P12" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S12" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
         <v>31</v>
@@ -1220,7 +1238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10">
         <v>2657949</v>
       </c>
@@ -1274,7 +1292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="10">
         <v>2559201</v>
       </c>
@@ -1330,7 +1348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>2570793</v>
       </c>
@@ -1368,7 +1386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:19" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>2276988</v>
       </c>
@@ -1417,8 +1435,14 @@
       <c r="Q17" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R17" s="11">
+        <v>1</v>
+      </c>
+      <c r="S17" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="15">
         <v>2544498</v>
       </c>
@@ -1464,8 +1488,14 @@
       <c r="Q18" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R18" s="11">
+        <v>1</v>
+      </c>
+      <c r="S18" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5">
         <v>2436031</v>
       </c>
@@ -1482,7 +1512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:19" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>2301160</v>
       </c>
@@ -1534,8 +1564,11 @@
       <c r="R20" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:19" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T20" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="10">
         <v>2575265</v>
       </c>
@@ -1582,7 +1615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:19" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5">
         <v>2638532</v>
       </c>
@@ -1599,7 +1632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:19" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>2601097</v>
       </c>
@@ -1658,7 +1691,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:21" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="10">
         <v>2487675</v>
       </c>
@@ -1716,8 +1749,14 @@
       <c r="S24" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="T24" s="11">
+        <v>1</v>
+      </c>
+      <c r="U24" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="10">
         <v>2519521</v>
       </c>
@@ -1767,7 +1806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:19" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>2702737</v>
       </c>
@@ -1823,7 +1862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>2252531</v>
       </c>
@@ -1870,7 +1909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:19" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:21" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>2577494</v>
       </c>
@@ -1914,7 +1953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4">
         <v>2531635</v>
       </c>
@@ -1961,8 +2000,14 @@
       <c r="Q29" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R29" s="12">
+        <v>1</v>
+      </c>
+      <c r="S29" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>2138056</v>
       </c>
@@ -2012,6 +2057,12 @@
         <v>1</v>
       </c>
       <c r="R30" s="7">
+        <v>1</v>
+      </c>
+      <c r="S30" s="7">
+        <v>1</v>
+      </c>
+      <c r="T30" s="7">
         <v>1</v>
       </c>
     </row>

--- a/Work Tracking/Grades.xlsx
+++ b/Work Tracking/Grades.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CIS7---Discrete-Structures\Work Tracking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncc\CIS7---Discrete-Structures\Work Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -624,7 +624,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="T6" sqref="T6"/>
+      <selection pane="topRight" activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -989,6 +989,15 @@
       <c r="O7" s="4">
         <v>1</v>
       </c>
+      <c r="Q7" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="R7" s="3">
+        <v>1</v>
+      </c>
+      <c r="T7" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:22" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -1104,6 +1113,24 @@
       <c r="O10" s="5">
         <v>1</v>
       </c>
+      <c r="P10" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>1</v>
+      </c>
+      <c r="R10" s="3">
+        <v>1</v>
+      </c>
+      <c r="S10" s="3">
+        <v>1</v>
+      </c>
+      <c r="U10" s="3">
+        <v>1</v>
+      </c>
+      <c r="V10" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
@@ -1211,6 +1238,9 @@
         <v>1</v>
       </c>
       <c r="S12" s="3">
+        <v>1</v>
+      </c>
+      <c r="U12" s="3">
         <v>1</v>
       </c>
     </row>
@@ -1388,7 +1418,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>2276988</v>
       </c>
@@ -1450,7 +1480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>2544498</v>
       </c>
@@ -1488,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="O18" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P18" s="3">
         <v>1</v>
@@ -1503,7 +1533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>2436031</v>
       </c>
@@ -1520,7 +1550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>2301160</v>
       </c>
@@ -1579,7 +1609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>2575265</v>
       </c>
@@ -1632,7 +1662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>2638532</v>
       </c>
@@ -1649,7 +1679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>2601097</v>
       </c>
@@ -1711,7 +1741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>2487675</v>
       </c>
@@ -1775,8 +1805,11 @@
       <c r="U24" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V24" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>2519521</v>
       </c>
@@ -1826,7 +1859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>2702737</v>
       </c>
@@ -1881,8 +1914,14 @@
       <c r="R26" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S26" s="3">
+        <v>1</v>
+      </c>
+      <c r="U26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>2252531</v>
       </c>
@@ -1929,7 +1968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>2577494</v>
       </c>
@@ -1973,7 +2012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>2531635</v>
       </c>
@@ -2029,7 +2068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>2138056</v>
       </c>

--- a/Work Tracking/Grades.xlsx
+++ b/Work Tracking/Grades.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -233,7 +233,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -282,11 +282,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -305,9 +315,19 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -619,12 +639,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V30"/>
+  <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="topRight" activeCell="U7" sqref="U7"/>
+      <selection pane="topRight" activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,10 +654,11 @@
     <col min="3" max="3" width="18.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="12" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="22" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="30.42578125" style="3"/>
+    <col min="23" max="23" width="5.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="30.42578125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
@@ -704,8 +725,9 @@
       <c r="V1" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W1" s="14"/>
+    </row>
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>2510759</v>
       </c>
@@ -760,8 +782,12 @@
       <c r="T2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W2" s="15">
+        <f>(SUM(C2:V2)) / 18</f>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2314019</v>
       </c>
@@ -822,8 +848,15 @@
       <c r="U3" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V3" s="3">
+        <v>1</v>
+      </c>
+      <c r="W3" s="15">
+        <f t="shared" ref="W3:W30" si="0">(SUM(C3:V3)) / 18</f>
+        <v>1.0555555555555556</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2513919</v>
       </c>
@@ -854,11 +887,24 @@
       <c r="L4" s="3">
         <v>1</v>
       </c>
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
       <c r="N4" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="W4" s="15">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>1910427</v>
       </c>
@@ -886,8 +932,12 @@
       <c r="K5" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W5" s="15">
+        <f t="shared" si="0"/>
+        <v>0.3888888888888889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>2304318</v>
       </c>
@@ -895,7 +945,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6" s="3">
         <v>1</v>
@@ -948,8 +998,15 @@
       <c r="U6" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="V6" s="3">
+        <v>1</v>
+      </c>
+      <c r="W6" s="15">
+        <f t="shared" si="0"/>
+        <v>1.0555555555555556</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>2249735</v>
       </c>
@@ -989,6 +1046,9 @@
       <c r="O7" s="4">
         <v>1</v>
       </c>
+      <c r="P7" s="3">
+        <v>1</v>
+      </c>
       <c r="Q7" s="3">
         <v>0.25</v>
       </c>
@@ -998,8 +1058,12 @@
       <c r="T7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:22" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W7" s="15">
+        <f t="shared" si="0"/>
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" s="7" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>2445585</v>
       </c>
@@ -1027,8 +1091,12 @@
       <c r="M8" s="7">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W8" s="15">
+        <f t="shared" si="0"/>
+        <v>0.3888888888888889</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="8" t="s">
         <v>32</v>
@@ -1066,8 +1134,24 @@
       <c r="O9" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="P9" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="S9" s="3">
+        <v>1</v>
+      </c>
+      <c r="U9" s="3">
+        <v>1</v>
+      </c>
+      <c r="W9" s="15">
+        <f t="shared" si="0"/>
+        <v>0.79166666666666663</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>2259358</v>
       </c>
@@ -1075,7 +1159,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" s="3">
         <v>1</v>
@@ -1131,8 +1215,12 @@
       <c r="V10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W10" s="15">
+        <f t="shared" si="0"/>
+        <v>1.0555555555555556</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>2420156</v>
       </c>
@@ -1140,7 +1228,7 @@
         <v>5</v>
       </c>
       <c r="C11" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="3">
         <v>1</v>
@@ -1193,58 +1281,66 @@
       <c r="U11" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="W11" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" s="11" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
         <v>2445577</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D12" s="3">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1</v>
-      </c>
-      <c r="G12" s="3">
-        <v>1</v>
-      </c>
-      <c r="H12" s="3">
-        <v>1</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1</v>
-      </c>
-      <c r="J12" s="3">
-        <v>1</v>
-      </c>
-      <c r="K12" s="3">
-        <v>1</v>
-      </c>
-      <c r="L12" s="3">
-        <v>1</v>
-      </c>
-      <c r="M12" s="3">
-        <v>1</v>
-      </c>
-      <c r="N12" s="4">
-        <v>1</v>
-      </c>
-      <c r="O12" s="5">
-        <v>1</v>
-      </c>
-      <c r="P12" s="5">
-        <v>1</v>
-      </c>
-      <c r="S12" s="3">
-        <v>1</v>
-      </c>
-      <c r="U12" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="11">
+        <v>1</v>
+      </c>
+      <c r="F12" s="11">
+        <v>1</v>
+      </c>
+      <c r="G12" s="11">
+        <v>1</v>
+      </c>
+      <c r="H12" s="11">
+        <v>1</v>
+      </c>
+      <c r="I12" s="11">
+        <v>1</v>
+      </c>
+      <c r="J12" s="11">
+        <v>1</v>
+      </c>
+      <c r="K12" s="11">
+        <v>1</v>
+      </c>
+      <c r="L12" s="11">
+        <v>1</v>
+      </c>
+      <c r="M12" s="11">
+        <v>1</v>
+      </c>
+      <c r="N12" s="12">
+        <v>1</v>
+      </c>
+      <c r="O12" s="13">
+        <v>1</v>
+      </c>
+      <c r="P12" s="13">
+        <v>1</v>
+      </c>
+      <c r="S12" s="11">
+        <v>1</v>
+      </c>
+      <c r="U12" s="11">
+        <v>1</v>
+      </c>
+      <c r="W12" s="15">
+        <f t="shared" si="0"/>
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2" t="s">
         <v>31</v>
@@ -1258,8 +1354,12 @@
       <c r="E13" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W13" s="15">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>2657949</v>
       </c>
@@ -1317,8 +1417,12 @@
       <c r="U14" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W14" s="15">
+        <f t="shared" si="0"/>
+        <v>0.94444444444444442</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>2559201</v>
       </c>
@@ -1326,7 +1430,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
@@ -1376,11 +1480,18 @@
       <c r="S15" s="3">
         <v>1</v>
       </c>
+      <c r="T15" s="3">
+        <v>1</v>
+      </c>
       <c r="U15" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W15" s="15">
+        <f t="shared" si="0"/>
+        <v>1.0555555555555556</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>2570793</v>
       </c>
@@ -1388,7 +1499,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
@@ -1417,8 +1528,12 @@
       <c r="N16" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W16" s="15">
+        <f t="shared" si="0"/>
+        <v>0.55555555555555558</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>2276988</v>
       </c>
@@ -1479,8 +1594,12 @@
       <c r="U17" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W17" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>2544498</v>
       </c>
@@ -1532,8 +1651,15 @@
       <c r="S18" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U18" s="3">
+        <v>1</v>
+      </c>
+      <c r="W18" s="15">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>2436031</v>
       </c>
@@ -1549,14 +1675,21 @@
       <c r="I19" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W19" s="15">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>2301160</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
       <c r="D20" s="3">
         <v>1</v>
       </c>
@@ -1602,14 +1735,21 @@
       <c r="R20" s="4">
         <v>1</v>
       </c>
+      <c r="S20" s="3">
+        <v>1</v>
+      </c>
       <c r="T20" s="3">
         <v>1</v>
       </c>
       <c r="U20" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W20" s="15">
+        <f t="shared" si="0"/>
+        <v>1.0555555555555556</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>2575265</v>
       </c>
@@ -1661,8 +1801,12 @@
       <c r="S21" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W21" s="15">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>2638532</v>
       </c>
@@ -1678,8 +1822,12 @@
       <c r="K22" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W22" s="15">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>2601097</v>
       </c>
@@ -1740,8 +1888,12 @@
       <c r="U23" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W23" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>2487675</v>
       </c>
@@ -1749,7 +1901,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D24" s="3">
         <v>1</v>
@@ -1808,8 +1960,12 @@
       <c r="V24" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W24" s="15">
+        <f t="shared" si="0"/>
+        <v>1.1111111111111112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>2519521</v>
       </c>
@@ -1858,8 +2014,15 @@
       <c r="Q25" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="S25" s="3">
+        <v>1</v>
+      </c>
+      <c r="W25" s="15">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>2702737</v>
       </c>
@@ -1920,8 +2083,12 @@
       <c r="U26" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W26" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>2252531</v>
       </c>
@@ -1929,7 +2096,7 @@
         <v>18</v>
       </c>
       <c r="C27" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D27" s="3">
         <v>1</v>
@@ -1967,8 +2134,15 @@
       <c r="P27" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q27" s="3">
+        <v>1</v>
+      </c>
+      <c r="W27" s="15">
+        <f t="shared" si="0"/>
+        <v>0.77777777777777779</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>2577494</v>
       </c>
@@ -2011,8 +2185,12 @@
       <c r="O28" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W28" s="15">
+        <f t="shared" si="0"/>
+        <v>0.61111111111111116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>2531635</v>
       </c>
@@ -2067,8 +2245,12 @@
       <c r="S29" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="W29" s="15">
+        <f t="shared" si="0"/>
+        <v>0.88888888888888884</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>2138056</v>
       </c>
@@ -2076,7 +2258,7 @@
         <v>23</v>
       </c>
       <c r="C30" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
@@ -2125,6 +2307,10 @@
       </c>
       <c r="T30" s="4">
         <v>1</v>
+      </c>
+      <c r="W30" s="15">
+        <f t="shared" si="0"/>
+        <v>0.94444444444444442</v>
       </c>
     </row>
   </sheetData>
